--- a/data/gauge_info.xlsx
+++ b/data/gauge_info.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewford/Desktop/HWRS519 Surface/Group_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewford/Desktop/HWRS519 Surface/Group_Project/surface_hydrology_group_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF9B32A-627D-C443-826A-CEED76E07147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0CEF7E-C4F2-3346-96EC-2513490F4850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="600" windowWidth="27640" windowHeight="15940" activeTab="1" xr2:uid="{E34415BB-D7EC-E249-848E-1CFE48218C3E}"/>
+    <workbookView xWindow="31820" yWindow="2660" windowWidth="29520" windowHeight="15940" activeTab="1" xr2:uid="{E34415BB-D7EC-E249-848E-1CFE48218C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
     <sheet name="our_gages" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DF8F741D-0C50-1D4A-885E-DA92B95B08EB}</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{DF8F741D-0C50-1D4A-885E-DA92B95B08EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    these are the x and y axis for Budyko Plot</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="2138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="2143">
   <si>
     <t>'01</t>
   </si>
@@ -6450,13 +6468,28 @@
   </si>
   <si>
     <t>Slope (m/km)</t>
+  </si>
+  <si>
+    <t>AVG PET Across All Years (mm/day)</t>
+  </si>
+  <si>
+    <t>AVG Precip Across All Years (mm/day)</t>
+  </si>
+  <si>
+    <t>Aridity Index</t>
+  </si>
+  <si>
+    <t>Q/P</t>
+  </si>
+  <si>
+    <t>AVG Runoff Across All Years (mm/day)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6479,16 +6512,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -6550,11 +6601,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6563,6 +6623,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6578,6 +6643,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ford, Matthew Thomas - (mford4)" id="{A360D70B-5985-1F40-B984-16E0795791DD}" userId="S::mford4@email.arizona.edu::54880616-7b7c-4f2e-aa05-e68de3325860" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6875,6 +6946,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O1" dT="2022-02-15T21:49:09.08" personId="{A360D70B-5985-1F40-B984-16E0795791DD}" id="{DF8F741D-0C50-1D4A-885E-DA92B95B08EB}">
+    <text>these are the x and y axis for Budyko Plot</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0D11F9-A6F8-004D-A939-447614ACFE33}">
   <dimension ref="A1:I672"/>
@@ -26385,11 +26464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC84310-D0C4-B747-B064-1B216E475841}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC84310-D0C4-B747-B064-1B216E475841}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" activeCellId="1" sqref="M1:M13 O1:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26403,9 +26482,13 @@
     <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.83203125" customWidth="1"/>
+    <col min="12" max="12" width="32.5" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2134</v>
       </c>
@@ -26436,8 +26519,23 @@
       <c r="J1" s="6" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>18</v>
       </c>
@@ -26468,8 +26566,25 @@
       <c r="J2" s="7">
         <v>169.65</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="7">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="M2" s="9">
+        <f>K2/L2</f>
+        <v>2.9359095193213953</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="O2" s="12">
+        <f>N2/L2</f>
+        <v>0.30348727615457116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -26500,8 +26615,25 @@
       <c r="J3" s="7">
         <v>40.83</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="7">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1.472</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M13" si="0">K3/L3</f>
+        <v>2.3220108695652177</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="O3" s="12">
+        <f t="shared" ref="O3:O13" si="1">N3/L3</f>
+        <v>2.7173913043478264E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>18</v>
       </c>
@@ -26532,8 +26664,25 @@
       <c r="J4" s="7">
         <v>56.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="7">
+        <v>3.464</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.284</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6978193146417446</v>
+      </c>
+      <c r="N4" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" si="1"/>
+        <v>4.5171339563862926E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>18</v>
       </c>
@@ -26564,8 +26713,25 @@
       <c r="J5" s="7">
         <v>109.96</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="7">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.915</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9462140992167101</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.30861618798955609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>16</v>
       </c>
@@ -26596,8 +26762,25 @@
       <c r="J6" s="7">
         <v>46.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="7">
+        <v>2.843</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0049365303244007</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.161</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.11354019746121298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>12</v>
       </c>
@@ -26628,8 +26811,25 @@
       <c r="J7" s="7">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="7">
+        <v>3.61</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6740740740740736</v>
+      </c>
+      <c r="N7" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" si="1"/>
+        <v>5.6296296296296289E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -26660,8 +26860,25 @@
       <c r="J8" s="7">
         <v>149.08000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="7">
+        <v>3.49</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0045950603101668</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.50545663411832276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -26692,8 +26909,25 @@
       <c r="J9" s="7">
         <v>49.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="7">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5688350983358545</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.254</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.19213313161875945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -26724,8 +26958,25 @@
       <c r="J10" s="7">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="7">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3.6920000000000002</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0956121343445286</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.10725893824485373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -26756,8 +27007,25 @@
       <c r="J11" s="7">
         <v>47.86</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="7">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="L11" s="7">
+        <v>5.2809999999999997</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53096004544593822</v>
+      </c>
+      <c r="N11" s="10">
+        <v>2.794</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.52906646468471885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -26788,8 +27056,25 @@
       <c r="J12" s="7">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="7">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4682002706359945</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4875958502480827E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>17</v>
       </c>
@@ -26819,10 +27104,28 @@
       </c>
       <c r="J13" s="7">
         <v>127.74</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="L13" s="7">
+        <v>8.5139999999999993</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24265914963589383</v>
+      </c>
+      <c r="N13" s="10">
+        <v>9.6210000000000004</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1300211416490487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>